--- a/stock_historical_data/1wk/BOSCHLTD.NS.xlsx
+++ b/stock_historical_data/1wk/BOSCHLTD.NS.xlsx
@@ -10718,7 +10718,7 @@
         <v>2</v>
       </c>
       <c r="R183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -12342,7 +12342,7 @@
         <v>2</v>
       </c>
       <c r="R212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -19230,7 +19230,7 @@
         <v>0</v>
       </c>
       <c r="R335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -23150,7 +23150,7 @@
         <v>0</v>
       </c>
       <c r="R405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -26622,7 +26622,7 @@
         <v>0</v>
       </c>
       <c r="R467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -27630,7 +27630,7 @@
         <v>2</v>
       </c>
       <c r="R485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486">
@@ -28862,7 +28862,7 @@
         <v>0</v>
       </c>
       <c r="R507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -30374,7 +30374,7 @@
         <v>2</v>
       </c>
       <c r="R534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535">
@@ -31942,7 +31942,7 @@
         <v>2</v>
       </c>
       <c r="R562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563">
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="R584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
@@ -34014,7 +34014,7 @@
         <v>0</v>
       </c>
       <c r="R599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
@@ -47902,7 +47902,7 @@
         <v>1</v>
       </c>
       <c r="R847" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848">
@@ -56358,7 +56358,7 @@
         <v>2</v>
       </c>
       <c r="R998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999">
@@ -64589,7 +64589,9 @@
       <c r="Q1145" t="n">
         <v>0</v>
       </c>
-      <c r="R1145" t="inlineStr"/>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BOSCHLTD.NS.xlsx
+++ b/stock_historical_data/1wk/BOSCHLTD.NS.xlsx
@@ -61205,7 +61205,9 @@
       <c r="P1146" t="n">
         <v>0</v>
       </c>
-      <c r="Q1146" t="inlineStr"/>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BOSCHLTD.NS.xlsx
+++ b/stock_historical_data/1wk/BOSCHLTD.NS.xlsx
@@ -64701,7 +64701,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BOSCHLTD.NS.xlsx
+++ b/stock_historical_data/1wk/BOSCHLTD.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1147"/>
+  <dimension ref="A1:R1149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64705,6 +64705,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>32355.599609375</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>34350</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>32064.94921875</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>32606.349609375</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>32606.349609375</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>289781</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>32600</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>36678</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>32200</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>34084.3984375</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>34084.3984375</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>284536</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/BOSCHLTD.NS.xlsx
+++ b/stock_historical_data/1wk/BOSCHLTD.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1149"/>
+  <dimension ref="A1:R1154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64637,7 +64637,7 @@
         <v>23</v>
       </c>
       <c r="O1146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1146" t="n">
         <v>0</v>
@@ -64757,7 +64757,9 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
@@ -64803,7 +64805,7 @@
         <v>26</v>
       </c>
       <c r="O1149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1149" t="n">
         <v>0</v>
@@ -64811,7 +64813,279 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>34000.05078125</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>35680</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>33702.1484375</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>35074</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>34904.3671875</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>150069</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>35172.1015625</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>35777.80078125</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>34342.5</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>35139.05078125</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>34969.1015625</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>133835</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>35239.05078125</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>35399</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>33948</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>34073.30078125</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>33908.5078125</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>101157</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>34073.30078125</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>35000</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>33100</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>34917.05078125</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>34917.05078125</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>115001</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>34902</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>35156.1484375</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>34420.44921875</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>34978.44921875</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>34978.44921875</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>62981</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BOSCHLTD.NS.xlsx
+++ b/stock_historical_data/1wk/BOSCHLTD.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1154"/>
+  <dimension ref="A1:R1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -64869,7 +64869,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64923,7 +64925,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64977,7 +64981,9 @@
       <c r="Q1152" t="n">
         <v>1</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -65031,7 +65037,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65085,7 +65093,1777 @@
       <c r="Q1154" t="n">
         <v>0</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>33500.05078125</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>33789.8984375</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>31619</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>32018.69921875</v>
+      </c>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="n">
+        <v>203175</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>31989.94921875</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>32048.400390625</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>30900</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>31940.599609375</v>
+      </c>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="n">
+        <v>105254</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>31940.599609375</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>32826.1015625</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>31525.099609375</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>32600.150390625</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>148373</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>32660</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>32921.05078125</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>31500</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>32389.599609375</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>171570</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>32389.599609375</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>34142.94921875</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>31922.349609375</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>32357.30078125</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>230219</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>32274</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>35044.44921875</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>32154.75</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>34343.1484375</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>296756</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>34350</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>36000</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>33850</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>35686.75</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>200700</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>35560.1015625</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>38179.8984375</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>35501.19921875</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>37976.1015625</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>258181</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>37976</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>38124.6015625</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>36420.55078125</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>36734.5</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>138055</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>36734.5</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>39088.80078125</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>36220.30078125</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>38486.80078125</v>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="n">
+        <v>189616</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>38486.80078125</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>38936.05078125</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>36060.1484375</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>36800.75</v>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="n">
+        <v>121700</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>36810</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>37265.5</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>35370.30078125</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>35931.94921875</v>
+      </c>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="n">
+        <v>81661</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>35800</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>36691</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>34822.3515625</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>35182.1484375</v>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="n">
+        <v>106954</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>35249.94921875</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>36772.69921875</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>34755.1484375</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>35119.3984375</v>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="n">
+        <v>111864</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>35100</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>35600</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>32830.5</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>33862.1015625</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>238867</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>33862.1015625</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>34829.3984375</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>33610</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>34317.55078125</v>
+      </c>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="n">
+        <v>67211</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>34450</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>35350</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>34400</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>34966.19921875</v>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="n">
+        <v>151214</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>34720.1015625</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>36997.3515625</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>34589.1015625</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>36253.6484375</v>
+      </c>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="n">
+        <v>123768</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>36367.80078125</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>36530.94921875</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>35460</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>36469.6015625</v>
+      </c>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="n">
+        <v>74902</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>36473.6015625</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>36680</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>34465.94921875</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>34576.94921875</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>71992</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>34775</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>34956.05078125</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>34000</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>34089.6484375</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>49543</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>34000</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>34919.25</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>33539.30078125</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>34253.55078125</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>149626</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>34264.8515625</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>34402</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>31624.75</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>31713.849609375</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>95479</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>31797.349609375</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>30815.75</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>31399.80078125</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>77800</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>31550</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>30204.099609375</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>30356.5</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>79153</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>30350</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>30350.05078125</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>27980.05078125</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>28689.25</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>308363</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>28710</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>29051.5</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>27840</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>28045.150390625</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>88710</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>28220</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>28499</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>26640.30078125</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>27004.55078125</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>120174</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>26820</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>27594.5</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>26501.05078125</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>27334.099609375</v>
+      </c>
+      <c r="F1183" t="inlineStr"/>
+      <c r="G1183" t="n">
+        <v>104047</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>27234.099609375</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>27341.099609375</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>26310.75</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>26544</v>
+      </c>
+      <c r="F1184" t="inlineStr"/>
+      <c r="G1184" t="n">
+        <v>102917</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1184" t="inlineStr"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>26544</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>27391.900390625</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>26005</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>27033.400390625</v>
+      </c>
+      <c r="F1185" t="inlineStr"/>
+      <c r="G1185" t="n">
+        <v>137104</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>27005</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>27250</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>26282.44921875</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>26378.349609375</v>
+      </c>
+      <c r="F1186" t="inlineStr"/>
+      <c r="G1186" t="n">
+        <v>61819</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>26379.05078125</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>27875</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>26210.94921875</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>27432.25</v>
+      </c>
+      <c r="F1187" t="inlineStr"/>
+      <c r="G1187" t="n">
+        <v>129978</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>27528.349609375</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>28560</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>27366.55078125</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>28358.44921875</v>
+      </c>
+      <c r="F1188" t="inlineStr"/>
+      <c r="G1188" t="n">
+        <v>152241</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1188" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
